--- a/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6637541714774139</v>
+        <v>0.664524787318817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6905022828971076</v>
+        <v>0.6927678402642767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7057988182945663</v>
+        <v>0.7031750978527157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7478241848263552</v>
+        <v>0.7446813373862501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7174278638773768</v>
+        <v>0.7157084387583068</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.754449901113639</v>
+        <v>0.7581693197322262</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7200041304660633</v>
+        <v>0.7220421787546699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7265046444667248</v>
+        <v>0.7203835874078915</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7480515376814427</v>
+        <v>0.747053641745216</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7731227627979891</v>
+        <v>0.7723012389848265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.793392080015532</v>
+        <v>0.7951284161579344</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.814141660288814</v>
+        <v>0.8092497215402924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8500758156101206</v>
+        <v>0.8515983040218791</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.824353202038689</v>
+        <v>0.8220591605519119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8475807826503855</v>
+        <v>0.8538723630080166</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7934983812549529</v>
+        <v>0.7994616411386304</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7993279977610153</v>
+        <v>0.7961777987092798</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8177389713610964</v>
+        <v>0.8162458647396982</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6687106343408186</v>
+        <v>0.6748246300637061</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8185996971576952</v>
+        <v>0.8129012544129289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8191799398818803</v>
+        <v>0.8239357665421425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6898638282869967</v>
+        <v>0.6929789580797354</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8491112354808931</v>
+        <v>0.8476799260320771</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8885573767018308</v>
+        <v>0.8874683931586437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.693467898731325</v>
+        <v>0.6946504585377837</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8436763167824635</v>
+        <v>0.8424580316642686</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8642042782829595</v>
+        <v>0.8650698655490553</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7539645548426311</v>
+        <v>0.7555410508555179</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8817495462289027</v>
+        <v>0.8812063381989139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8870585792597205</v>
+        <v>0.8887875949203592</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.771262112439659</v>
+        <v>0.7687911429418482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9030246523655512</v>
+        <v>0.9032460218393438</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.938146042943604</v>
+        <v>0.9374393088737066</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7513794576337173</v>
+        <v>0.7526333639802211</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8873073968285584</v>
+        <v>0.8853577105411035</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9055836669180697</v>
+        <v>0.9079601889920043</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7602225909515308</v>
+        <v>0.7601101934331914</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8451858793311769</v>
+        <v>0.8422180529125695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7921726215978229</v>
+        <v>0.7929910053271303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8601751019073004</v>
+        <v>0.8622137969611496</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8944306070017156</v>
+        <v>0.8945511048323719</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8315373618542965</v>
+        <v>0.8268909622159949</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8227473859572115</v>
+        <v>0.8251706437519047</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8841171825717755</v>
+        <v>0.8812805589566903</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8233844689229068</v>
+        <v>0.8238357853708992</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8490587791516906</v>
+        <v>0.8482916619496612</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9129512880682239</v>
+        <v>0.9116622384748344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8757752469491495</v>
+        <v>0.8723750214778309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9276455017350546</v>
+        <v>0.9259264675760145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9534699006570018</v>
+        <v>0.9541308824994505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9014304484530155</v>
+        <v>0.9010549796729371</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8817864416527932</v>
+        <v>0.8789368538442356</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9285059094530126</v>
+        <v>0.9288726227225146</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8782567218680853</v>
+        <v>0.8792136841293646</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.795041495578648</v>
+        <v>0.7924037277414488</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7795816809107895</v>
+        <v>0.7792226908981159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7519343008982743</v>
+        <v>0.7541059492894494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8646538372928495</v>
+        <v>0.8681134176088521</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8977282433772571</v>
+        <v>0.8999409210293228</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8170934606753341</v>
+        <v>0.8192856417990834</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8423613637409174</v>
+        <v>0.8402323220704457</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8494286337515229</v>
+        <v>0.8502261839915455</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8022271395343162</v>
+        <v>0.7991687666010248</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.871358273061607</v>
+        <v>0.8715612564488854</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8613670146283237</v>
+        <v>0.8631709513129151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8379024184047148</v>
+        <v>0.839696908211488</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9251223448936745</v>
+        <v>0.9279144982213692</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9523137374693393</v>
+        <v>0.9503231194754811</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8910884259786166</v>
+        <v>0.8926982867403288</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8939822184998082</v>
+        <v>0.8910445733722062</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8991045079088381</v>
+        <v>0.9006127612806777</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8575557726911769</v>
+        <v>0.8561762379396259</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.586437087122387</v>
+        <v>0.5879559242792886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6847535231857157</v>
+        <v>0.6798907428783052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.872812928029621</v>
+        <v>0.8616503105575234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6373612550401471</v>
+        <v>0.6415997589333612</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8211051186305115</v>
+        <v>0.8226962788717417</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9030687845108419</v>
+        <v>0.896726650561859</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6334972277288139</v>
+        <v>0.6343948051947084</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7651068055770993</v>
+        <v>0.7624295950971298</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8981700948490102</v>
+        <v>0.9013312699052221</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7189835458752776</v>
+        <v>0.7239118660218515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8034580392515541</v>
+        <v>0.8064233502692886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9472335555805234</v>
+        <v>0.9440084521849668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7672920977799224</v>
+        <v>0.7712986606655008</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9090840176919111</v>
+        <v>0.9097962332601479</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9683388164714619</v>
+        <v>0.9663878690737849</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7248357630409311</v>
+        <v>0.7238909849622879</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8416899519164714</v>
+        <v>0.8456960165306001</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9498533183558051</v>
+        <v>0.9492985201883932</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7694107069665215</v>
+        <v>0.769139929005712</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8486278264316751</v>
+        <v>0.8480103202199379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5479710118361812</v>
+        <v>0.5541250854876554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7883838871843847</v>
+        <v>0.7894667129157988</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8407147580951245</v>
+        <v>0.8494959641337577</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5913672564368391</v>
+        <v>0.594393741917546</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7958162134568704</v>
+        <v>0.7931723093537616</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8613733873781833</v>
+        <v>0.8604296199774136</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5911160837778514</v>
+        <v>0.5897260325920772</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8598318616740459</v>
+        <v>0.8603364308186755</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.923386155492265</v>
+        <v>0.9237111310063022</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6691039191343364</v>
+        <v>0.676846650337018</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8770043781094211</v>
+        <v>0.876741029020114</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9232521892487803</v>
+        <v>0.9253069205505438</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7071868942087239</v>
+        <v>0.711289973493092</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8582358970594453</v>
+        <v>0.8593968220767598</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9149967839472578</v>
+        <v>0.9154078878667735</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6749840901562719</v>
+        <v>0.6752786301440058</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7790995037683456</v>
+        <v>0.7807238114170619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8222233762551442</v>
+        <v>0.8217406519529225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6853756611152472</v>
+        <v>0.6807077783854857</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8242384475558319</v>
+        <v>0.8265351711728413</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8487717189693074</v>
+        <v>0.8470375519565749</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7200884167342656</v>
+        <v>0.7233534999708207</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8138129924322148</v>
+        <v>0.811494382116692</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8460836418043048</v>
+        <v>0.8450399951465712</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7122102647761516</v>
+        <v>0.7135361202475203</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8467845011711763</v>
+        <v>0.8433260233178246</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8792287665649825</v>
+        <v>0.8782875034045494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7586146409470933</v>
+        <v>0.7560635789562321</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8802790874477682</v>
+        <v>0.8841140270532762</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9018206565525146</v>
+        <v>0.9019480555522906</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.788060839234898</v>
+        <v>0.7889482435735423</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8559243461166292</v>
+        <v>0.8556521188346494</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8831766560549746</v>
+        <v>0.8833262933483503</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7647466202433529</v>
+        <v>0.7630003126252614</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.68808822082844</v>
+        <v>0.6884009325320893</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.801279286485346</v>
+        <v>0.8006792423387523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8371606644134758</v>
+        <v>0.8356321651919696</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7604090274457903</v>
+        <v>0.7589837649468724</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8378302748858489</v>
+        <v>0.8386401769354013</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8370925858580116</v>
+        <v>0.8357146919166244</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7330878095618882</v>
+        <v>0.7330206658914893</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8288169484845889</v>
+        <v>0.8258470072907997</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8451073624518913</v>
+        <v>0.8452246165953911</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7562095517782981</v>
+        <v>0.7555240623663847</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8541220929366007</v>
+        <v>0.8553677453845138</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8861267012473145</v>
+        <v>0.883422866847596</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8180872338424577</v>
+        <v>0.8192980392505587</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8868705057862478</v>
+        <v>0.887436957359413</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8870124219901268</v>
+        <v>0.8866036199362434</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7783928018482427</v>
+        <v>0.7777050034563761</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8661988859620621</v>
+        <v>0.864290756801093</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8795434569898384</v>
+        <v>0.8791726431294381</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>181212</v>
+        <v>181422</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>203517</v>
+        <v>204185</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205901</v>
+        <v>205136</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>195061</v>
+        <v>194241</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>204471</v>
+        <v>203981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>217812</v>
+        <v>218886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>384373</v>
+        <v>385461</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>421187</v>
+        <v>417638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>434192</v>
+        <v>433613</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>211070</v>
+        <v>210846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>233843</v>
+        <v>234355</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>237508</v>
+        <v>236081</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>221732</v>
+        <v>222129</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>234946</v>
+        <v>234292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>244699</v>
+        <v>246516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>423608</v>
+        <v>426791</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>463406</v>
+        <v>461579</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>474641</v>
+        <v>473774</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>328394</v>
+        <v>331396</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>412973</v>
+        <v>410098</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>411699</v>
+        <v>414090</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>347656</v>
+        <v>349226</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>444735</v>
+        <v>443985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>464790</v>
+        <v>464221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>690024</v>
+        <v>691201</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>867512</v>
+        <v>866259</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>886379</v>
+        <v>887267</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>370261</v>
+        <v>371035</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>444831</v>
+        <v>444557</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>445813</v>
+        <v>446682</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>388677</v>
+        <v>387432</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>472973</v>
+        <v>473089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>490729</v>
+        <v>490360</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>747648</v>
+        <v>748896</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>912376</v>
+        <v>910371</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>928820</v>
+        <v>931258</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>242394</v>
+        <v>242358</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>273879</v>
+        <v>272917</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>252358</v>
+        <v>252619</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>288513</v>
+        <v>289197</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>304137</v>
+        <v>304178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>279653</v>
+        <v>278091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>538289</v>
+        <v>539874</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>587125</v>
+        <v>585241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>539213</v>
+        <v>539509</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>270719</v>
+        <v>270474</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>295838</v>
+        <v>295421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>278991</v>
+        <v>277908</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>311143</v>
+        <v>310567</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>324212</v>
+        <v>324437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>303159</v>
+        <v>303033</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>576916</v>
+        <v>575051</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>616602</v>
+        <v>616846</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>575147</v>
+        <v>575774</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>285158</v>
+        <v>284212</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>291550</v>
+        <v>291415</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>278189</v>
+        <v>278992</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>321181</v>
+        <v>322466</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>349172</v>
+        <v>350033</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>316446</v>
+        <v>317295</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>615031</v>
+        <v>613476</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>648057</v>
+        <v>648666</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>607484</v>
+        <v>605168</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>312531</v>
+        <v>312604</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>322136</v>
+        <v>322810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>309994</v>
+        <v>310658</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>343642</v>
+        <v>344679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>370403</v>
+        <v>369629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>345103</v>
+        <v>345727</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>652721</v>
+        <v>650576</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>685956</v>
+        <v>687107</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>649382</v>
+        <v>648337</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>119227</v>
+        <v>119536</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145591</v>
+        <v>144557</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>184356</v>
+        <v>181999</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>132360</v>
+        <v>133240</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>180307</v>
+        <v>180657</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>197399</v>
+        <v>196013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>260352</v>
+        <v>260721</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>330686</v>
+        <v>329529</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>386041</v>
+        <v>387399</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>146175</v>
+        <v>147177</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>170830</v>
+        <v>171460</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>200076</v>
+        <v>199394</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>159342</v>
+        <v>160174</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>199627</v>
+        <v>199783</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>211666</v>
+        <v>211240</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>297890</v>
+        <v>297502</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>363786</v>
+        <v>365517</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>408255</v>
+        <v>408016</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>208365</v>
+        <v>208292</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>231694</v>
+        <v>231525</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>144184</v>
+        <v>145803</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>219284</v>
+        <v>219585</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>234512</v>
+        <v>236962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>160913</v>
+        <v>161736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>436867</v>
+        <v>435416</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>475449</v>
+        <v>474928</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>316381</v>
+        <v>315637</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>232852</v>
+        <v>232989</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>252105</v>
+        <v>252193</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>176057</v>
+        <v>178094</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>243934</v>
+        <v>243860</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>257536</v>
+        <v>258109</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>192428</v>
+        <v>193544</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>471133</v>
+        <v>471770</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>505047</v>
+        <v>505274</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>361269</v>
+        <v>361427</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>479167</v>
+        <v>480166</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>542441</v>
+        <v>542123</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>447398</v>
+        <v>444351</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>525240</v>
+        <v>526704</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>586355</v>
+        <v>585157</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>496992</v>
+        <v>499246</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1019114</v>
+        <v>1016210</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1142681</v>
+        <v>1141271</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>956469</v>
+        <v>958250</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>520795</v>
+        <v>518668</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>580049</v>
+        <v>579428</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>495207</v>
+        <v>493542</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>560952</v>
+        <v>563395</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>623003</v>
+        <v>623091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>543905</v>
+        <v>544518</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1071848</v>
+        <v>1071507</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1192777</v>
+        <v>1192979</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1027023</v>
+        <v>1024678</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>511190</v>
+        <v>511422</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>624275</v>
+        <v>623808</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>650973</v>
+        <v>649784</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>594983</v>
+        <v>593868</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>690249</v>
+        <v>690916</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>688477</v>
+        <v>687344</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1118226</v>
+        <v>1118123</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1328553</v>
+        <v>1323792</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1352221</v>
+        <v>1352408</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>561798</v>
+        <v>561289</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>665445</v>
+        <v>666415</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>689049</v>
+        <v>686946</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>640113</v>
+        <v>641061</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>730651</v>
+        <v>731118</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>729534</v>
+        <v>729198</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1187332</v>
+        <v>1186283</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1388474</v>
+        <v>1385416</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1407321</v>
+        <v>1406727</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
     </row>
     <row r="40">
